--- a/dataset/2nd_data/kim/kim_product_1_data.xlsx
+++ b/dataset/2nd_data/kim/kim_product_1_data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -59,12 +56,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -425,8 +421,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>43178</v>
+      <c r="A2" t="n">
+        <v>20180319</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -477,8 +473,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>43178</v>
+      <c r="A3" t="n">
+        <v>20180319</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -529,8 +525,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>43178</v>
+      <c r="A4" t="n">
+        <v>20180319</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -581,8 +577,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>43178</v>
+      <c r="A5" t="n">
+        <v>20180319</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -633,8 +629,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>43178</v>
+      <c r="A6" t="n">
+        <v>20180319</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -685,8 +681,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>43178</v>
+      <c r="A7" t="n">
+        <v>20180319</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -737,8 +733,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>43178</v>
+      <c r="A8" t="n">
+        <v>20180319</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -789,8 +785,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>43178</v>
+      <c r="A9" t="n">
+        <v>20180319</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -841,8 +837,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>43178</v>
+      <c r="A10" t="n">
+        <v>20180319</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -893,8 +889,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>43178</v>
+      <c r="A11" t="n">
+        <v>20180319</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -945,8 +941,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>43178</v>
+      <c r="A12" t="n">
+        <v>20180319</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -997,8 +993,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>43178</v>
+      <c r="A13" t="n">
+        <v>20180319</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1049,8 +1045,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>43178</v>
+      <c r="A14" t="n">
+        <v>20180319</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1101,8 +1097,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>43178</v>
+      <c r="A15" t="n">
+        <v>20180319</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1153,8 +1149,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>43178</v>
+      <c r="A16" t="n">
+        <v>20180319</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,8 +1201,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>43178</v>
+      <c r="A17" t="n">
+        <v>20180319</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1257,8 +1253,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>43185</v>
+      <c r="A18" t="n">
+        <v>20180326</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1309,8 +1305,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>43185</v>
+      <c r="A19" t="n">
+        <v>20180326</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1361,8 +1357,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>43185</v>
+      <c r="A20" t="n">
+        <v>20180326</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1413,8 +1409,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>43185</v>
+      <c r="A21" t="n">
+        <v>20180326</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1465,8 +1461,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>43185</v>
+      <c r="A22" t="n">
+        <v>20180326</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1517,8 +1513,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>43185</v>
+      <c r="A23" t="n">
+        <v>20180326</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1569,8 +1565,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>43185</v>
+      <c r="A24" t="n">
+        <v>20180326</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1621,8 +1617,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>43185</v>
+      <c r="A25" t="n">
+        <v>20180326</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1673,8 +1669,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>43185</v>
+      <c r="A26" t="n">
+        <v>20180326</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1725,8 +1721,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>43185</v>
+      <c r="A27" t="n">
+        <v>20180326</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1777,8 +1773,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>43185</v>
+      <c r="A28" t="n">
+        <v>20180326</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1829,8 +1825,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>43185</v>
+      <c r="A29" t="n">
+        <v>20180326</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1881,8 +1877,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>43185</v>
+      <c r="A30" t="n">
+        <v>20180326</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1933,8 +1929,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>43185</v>
+      <c r="A31" t="n">
+        <v>20180326</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1985,8 +1981,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>43185</v>
+      <c r="A32" t="n">
+        <v>20180326</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2037,8 +2033,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>43185</v>
+      <c r="A33" t="n">
+        <v>20180326</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2089,8 +2085,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>43192</v>
+      <c r="A34" t="n">
+        <v>20180402</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2141,8 +2137,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>43192</v>
+      <c r="A35" t="n">
+        <v>20180402</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2193,8 +2189,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>43192</v>
+      <c r="A36" t="n">
+        <v>20180402</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2245,8 +2241,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>43192</v>
+      <c r="A37" t="n">
+        <v>20180402</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2297,8 +2293,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>43192</v>
+      <c r="A38" t="n">
+        <v>20180402</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2349,8 +2345,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>43192</v>
+      <c r="A39" t="n">
+        <v>20180402</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2401,8 +2397,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>43192</v>
+      <c r="A40" t="n">
+        <v>20180402</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2453,8 +2449,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>43192</v>
+      <c r="A41" t="n">
+        <v>20180402</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2505,8 +2501,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>43192</v>
+      <c r="A42" t="n">
+        <v>20180402</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2557,8 +2553,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>43192</v>
+      <c r="A43" t="n">
+        <v>20180402</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2609,8 +2605,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>43192</v>
+      <c r="A44" t="n">
+        <v>20180402</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2661,8 +2657,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43192</v>
+      <c r="A45" t="n">
+        <v>20180402</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2713,8 +2709,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>43192</v>
+      <c r="A46" t="n">
+        <v>20180402</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2765,8 +2761,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>43192</v>
+      <c r="A47" t="n">
+        <v>20180402</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2817,8 +2813,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>43192</v>
+      <c r="A48" t="n">
+        <v>20180402</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2869,8 +2865,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>43192</v>
+      <c r="A49" t="n">
+        <v>20180402</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2921,8 +2917,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>43199</v>
+      <c r="A50" t="n">
+        <v>20180409</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2973,8 +2969,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>43199</v>
+      <c r="A51" t="n">
+        <v>20180409</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3025,8 +3021,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>43199</v>
+      <c r="A52" t="n">
+        <v>20180409</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3077,8 +3073,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>43199</v>
+      <c r="A53" t="n">
+        <v>20180409</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3129,8 +3125,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>43199</v>
+      <c r="A54" t="n">
+        <v>20180409</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3181,8 +3177,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>43199</v>
+      <c r="A55" t="n">
+        <v>20180409</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3233,8 +3229,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>43199</v>
+      <c r="A56" t="n">
+        <v>20180409</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3285,8 +3281,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>43199</v>
+      <c r="A57" t="n">
+        <v>20180409</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3337,8 +3333,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>43199</v>
+      <c r="A58" t="n">
+        <v>20180409</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3389,8 +3385,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>43199</v>
+      <c r="A59" t="n">
+        <v>20180409</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3441,8 +3437,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>43199</v>
+      <c r="A60" t="n">
+        <v>20180409</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3493,8 +3489,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>43199</v>
+      <c r="A61" t="n">
+        <v>20180409</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3545,8 +3541,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>43199</v>
+      <c r="A62" t="n">
+        <v>20180409</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3597,8 +3593,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>43199</v>
+      <c r="A63" t="n">
+        <v>20180409</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3649,8 +3645,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>43199</v>
+      <c r="A64" t="n">
+        <v>20180409</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -3701,8 +3697,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>43199</v>
+      <c r="A65" t="n">
+        <v>20180409</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3753,8 +3749,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>43206</v>
+      <c r="A66" t="n">
+        <v>20180416</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3805,8 +3801,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>43206</v>
+      <c r="A67" t="n">
+        <v>20180416</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3857,8 +3853,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>43206</v>
+      <c r="A68" t="n">
+        <v>20180416</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3909,8 +3905,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>43206</v>
+      <c r="A69" t="n">
+        <v>20180416</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3961,8 +3957,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>43206</v>
+      <c r="A70" t="n">
+        <v>20180416</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4013,8 +4009,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>43206</v>
+      <c r="A71" t="n">
+        <v>20180416</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4065,8 +4061,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>43206</v>
+      <c r="A72" t="n">
+        <v>20180416</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4117,8 +4113,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>43206</v>
+      <c r="A73" t="n">
+        <v>20180416</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4169,8 +4165,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>43206</v>
+      <c r="A74" t="n">
+        <v>20180416</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4221,8 +4217,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>43206</v>
+      <c r="A75" t="n">
+        <v>20180416</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4273,8 +4269,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>43206</v>
+      <c r="A76" t="n">
+        <v>20180416</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4325,8 +4321,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>43206</v>
+      <c r="A77" t="n">
+        <v>20180416</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4377,8 +4373,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>43206</v>
+      <c r="A78" t="n">
+        <v>20180416</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4429,8 +4425,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>43206</v>
+      <c r="A79" t="n">
+        <v>20180416</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4481,8 +4477,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>43206</v>
+      <c r="A80" t="n">
+        <v>20180416</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4533,8 +4529,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>43206</v>
+      <c r="A81" t="n">
+        <v>20180416</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -4585,8 +4581,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>43213</v>
+      <c r="A82" t="n">
+        <v>20180423</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -4637,8 +4633,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>43213</v>
+      <c r="A83" t="n">
+        <v>20180423</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -4689,8 +4685,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>43213</v>
+      <c r="A84" t="n">
+        <v>20180423</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -4741,8 +4737,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>43213</v>
+      <c r="A85" t="n">
+        <v>20180423</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -4793,8 +4789,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>43213</v>
+      <c r="A86" t="n">
+        <v>20180423</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -4845,8 +4841,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>43213</v>
+      <c r="A87" t="n">
+        <v>20180423</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -4897,8 +4893,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>43213</v>
+      <c r="A88" t="n">
+        <v>20180423</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -4949,8 +4945,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>43213</v>
+      <c r="A89" t="n">
+        <v>20180423</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5001,8 +4997,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>43213</v>
+      <c r="A90" t="n">
+        <v>20180423</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5053,8 +5049,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>43213</v>
+      <c r="A91" t="n">
+        <v>20180423</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5105,8 +5101,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>43213</v>
+      <c r="A92" t="n">
+        <v>20180423</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5157,8 +5153,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>43213</v>
+      <c r="A93" t="n">
+        <v>20180423</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5209,8 +5205,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>43213</v>
+      <c r="A94" t="n">
+        <v>20180423</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5261,8 +5257,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>43213</v>
+      <c r="A95" t="n">
+        <v>20180423</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5313,8 +5309,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>43213</v>
+      <c r="A96" t="n">
+        <v>20180423</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5365,8 +5361,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>43213</v>
+      <c r="A97" t="n">
+        <v>20180423</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5417,8 +5413,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>43220</v>
+      <c r="A98" t="n">
+        <v>20180430</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -5469,8 +5465,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>43220</v>
+      <c r="A99" t="n">
+        <v>20180430</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -5521,8 +5517,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>43220</v>
+      <c r="A100" t="n">
+        <v>20180430</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -5573,8 +5569,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>43220</v>
+      <c r="A101" t="n">
+        <v>20180430</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5625,8 +5621,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>43220</v>
+      <c r="A102" t="n">
+        <v>20180430</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5677,8 +5673,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>43220</v>
+      <c r="A103" t="n">
+        <v>20180430</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -5729,8 +5725,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>43220</v>
+      <c r="A104" t="n">
+        <v>20180430</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5781,8 +5777,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>43220</v>
+      <c r="A105" t="n">
+        <v>20180430</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -5833,8 +5829,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>43220</v>
+      <c r="A106" t="n">
+        <v>20180430</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -5885,8 +5881,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>43220</v>
+      <c r="A107" t="n">
+        <v>20180430</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -5937,8 +5933,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>43220</v>
+      <c r="A108" t="n">
+        <v>20180430</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -5989,8 +5985,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>43220</v>
+      <c r="A109" t="n">
+        <v>20180430</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -6041,8 +6037,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>43220</v>
+      <c r="A110" t="n">
+        <v>20180430</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -6093,8 +6089,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>43220</v>
+      <c r="A111" t="n">
+        <v>20180430</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -6145,8 +6141,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>43220</v>
+      <c r="A112" t="n">
+        <v>20180430</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -6197,8 +6193,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>43220</v>
+      <c r="A113" t="n">
+        <v>20180430</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6249,8 +6245,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>43227</v>
+      <c r="A114" t="n">
+        <v>20180507</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6301,8 +6297,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>43227</v>
+      <c r="A115" t="n">
+        <v>20180507</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6353,8 +6349,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>43227</v>
+      <c r="A116" t="n">
+        <v>20180507</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -6405,8 +6401,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>43227</v>
+      <c r="A117" t="n">
+        <v>20180507</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -6457,8 +6453,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>43227</v>
+      <c r="A118" t="n">
+        <v>20180507</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -6509,8 +6505,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>43227</v>
+      <c r="A119" t="n">
+        <v>20180507</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -6561,8 +6557,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>43227</v>
+      <c r="A120" t="n">
+        <v>20180507</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -6613,8 +6609,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>43227</v>
+      <c r="A121" t="n">
+        <v>20180507</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -6665,8 +6661,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>43227</v>
+      <c r="A122" t="n">
+        <v>20180507</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -6717,8 +6713,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>43227</v>
+      <c r="A123" t="n">
+        <v>20180507</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -6769,8 +6765,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>43227</v>
+      <c r="A124" t="n">
+        <v>20180507</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -6821,8 +6817,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>43227</v>
+      <c r="A125" t="n">
+        <v>20180507</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -6873,8 +6869,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>43227</v>
+      <c r="A126" t="n">
+        <v>20180507</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -6925,8 +6921,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
-        <v>43227</v>
+      <c r="A127" t="n">
+        <v>20180507</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -6977,8 +6973,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
-        <v>43227</v>
+      <c r="A128" t="n">
+        <v>20180507</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -7029,8 +7025,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
-        <v>43227</v>
+      <c r="A129" t="n">
+        <v>20180507</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -7081,8 +7077,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
-        <v>43234</v>
+      <c r="A130" t="n">
+        <v>20180514</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -7133,8 +7129,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>43234</v>
+      <c r="A131" t="n">
+        <v>20180514</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -7185,8 +7181,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>43234</v>
+      <c r="A132" t="n">
+        <v>20180514</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -7237,8 +7233,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>43234</v>
+      <c r="A133" t="n">
+        <v>20180514</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -7289,8 +7285,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>43234</v>
+      <c r="A134" t="n">
+        <v>20180514</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -7341,8 +7337,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>43234</v>
+      <c r="A135" t="n">
+        <v>20180514</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -7393,8 +7389,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>43234</v>
+      <c r="A136" t="n">
+        <v>20180514</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -7445,8 +7441,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>43234</v>
+      <c r="A137" t="n">
+        <v>20180514</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -7497,8 +7493,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>43234</v>
+      <c r="A138" t="n">
+        <v>20180514</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -7549,8 +7545,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>43234</v>
+      <c r="A139" t="n">
+        <v>20180514</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -7601,8 +7597,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>43234</v>
+      <c r="A140" t="n">
+        <v>20180514</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -7653,8 +7649,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>43234</v>
+      <c r="A141" t="n">
+        <v>20180514</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -7705,8 +7701,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>43234</v>
+      <c r="A142" t="n">
+        <v>20180514</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -7757,8 +7753,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>43234</v>
+      <c r="A143" t="n">
+        <v>20180514</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -7809,8 +7805,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>43234</v>
+      <c r="A144" t="n">
+        <v>20180514</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -7861,8 +7857,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>43234</v>
+      <c r="A145" t="n">
+        <v>20180514</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -7913,8 +7909,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>43241</v>
+      <c r="A146" t="n">
+        <v>20180521</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -7965,8 +7961,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>43241</v>
+      <c r="A147" t="n">
+        <v>20180521</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -8017,8 +8013,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
-        <v>43241</v>
+      <c r="A148" t="n">
+        <v>20180521</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -8069,8 +8065,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
-        <v>43241</v>
+      <c r="A149" t="n">
+        <v>20180521</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -8121,8 +8117,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
-        <v>43241</v>
+      <c r="A150" t="n">
+        <v>20180521</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -8173,8 +8169,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
-        <v>43241</v>
+      <c r="A151" t="n">
+        <v>20180521</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -8225,8 +8221,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
-        <v>43241</v>
+      <c r="A152" t="n">
+        <v>20180521</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -8277,8 +8273,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
-        <v>43241</v>
+      <c r="A153" t="n">
+        <v>20180521</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -8329,8 +8325,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
-        <v>43241</v>
+      <c r="A154" t="n">
+        <v>20180521</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -8381,8 +8377,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
-        <v>43241</v>
+      <c r="A155" t="n">
+        <v>20180521</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -8433,8 +8429,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
-        <v>43241</v>
+      <c r="A156" t="n">
+        <v>20180521</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -8485,8 +8481,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>43241</v>
+      <c r="A157" t="n">
+        <v>20180521</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -8537,8 +8533,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
-        <v>43241</v>
+      <c r="A158" t="n">
+        <v>20180521</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -8589,8 +8585,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
-        <v>43241</v>
+      <c r="A159" t="n">
+        <v>20180521</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -8641,8 +8637,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
-        <v>43241</v>
+      <c r="A160" t="n">
+        <v>20180521</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -8693,8 +8689,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
-        <v>43241</v>
+      <c r="A161" t="n">
+        <v>20180521</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -8745,8 +8741,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
-        <v>43248</v>
+      <c r="A162" t="n">
+        <v>20180528</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -8797,8 +8793,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
-        <v>43248</v>
+      <c r="A163" t="n">
+        <v>20180528</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -8849,8 +8845,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
-        <v>43248</v>
+      <c r="A164" t="n">
+        <v>20180528</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -8901,8 +8897,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
-        <v>43248</v>
+      <c r="A165" t="n">
+        <v>20180528</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -8953,8 +8949,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
-        <v>43248</v>
+      <c r="A166" t="n">
+        <v>20180528</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -9005,8 +9001,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
-        <v>43248</v>
+      <c r="A167" t="n">
+        <v>20180528</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -9057,8 +9053,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
-        <v>43248</v>
+      <c r="A168" t="n">
+        <v>20180528</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -9109,8 +9105,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
-        <v>43248</v>
+      <c r="A169" t="n">
+        <v>20180528</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -9161,8 +9157,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
-        <v>43248</v>
+      <c r="A170" t="n">
+        <v>20180528</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -9213,8 +9209,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>43248</v>
+      <c r="A171" t="n">
+        <v>20180528</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -9265,8 +9261,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
-        <v>43248</v>
+      <c r="A172" t="n">
+        <v>20180528</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -9317,8 +9313,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
-        <v>43248</v>
+      <c r="A173" t="n">
+        <v>20180528</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -9369,8 +9365,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
-        <v>43248</v>
+      <c r="A174" t="n">
+        <v>20180528</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -9421,8 +9417,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
-        <v>43248</v>
+      <c r="A175" t="n">
+        <v>20180528</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -9473,8 +9469,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
-        <v>43248</v>
+      <c r="A176" t="n">
+        <v>20180528</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -9525,8 +9521,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
-        <v>43248</v>
+      <c r="A177" t="n">
+        <v>20180528</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -9577,8 +9573,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
-        <v>43255</v>
+      <c r="A178" t="n">
+        <v>20180604</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -9629,8 +9625,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
-        <v>43255</v>
+      <c r="A179" t="n">
+        <v>20180604</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -9681,8 +9677,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
-        <v>43255</v>
+      <c r="A180" t="n">
+        <v>20180604</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -9733,8 +9729,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
-        <v>43255</v>
+      <c r="A181" t="n">
+        <v>20180604</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -9785,8 +9781,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
-        <v>43255</v>
+      <c r="A182" t="n">
+        <v>20180604</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -9837,8 +9833,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
-        <v>43255</v>
+      <c r="A183" t="n">
+        <v>20180604</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -9889,8 +9885,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
-        <v>43255</v>
+      <c r="A184" t="n">
+        <v>20180604</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -9941,8 +9937,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
-        <v>43255</v>
+      <c r="A185" t="n">
+        <v>20180604</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -9993,8 +9989,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>43255</v>
+      <c r="A186" t="n">
+        <v>20180604</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -10045,8 +10041,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
-        <v>43255</v>
+      <c r="A187" t="n">
+        <v>20180604</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -10097,8 +10093,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
-        <v>43255</v>
+      <c r="A188" t="n">
+        <v>20180604</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -10149,8 +10145,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
-        <v>43255</v>
+      <c r="A189" t="n">
+        <v>20180604</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -10201,8 +10197,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
-        <v>43255</v>
+      <c r="A190" t="n">
+        <v>20180604</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -10253,8 +10249,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
-        <v>43255</v>
+      <c r="A191" t="n">
+        <v>20180604</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -10305,8 +10301,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
-        <v>43255</v>
+      <c r="A192" t="n">
+        <v>20180604</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -10357,8 +10353,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
-        <v>43255</v>
+      <c r="A193" t="n">
+        <v>20180604</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -10409,8 +10405,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
-        <v>43262</v>
+      <c r="A194" t="n">
+        <v>20180611</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -10461,8 +10457,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
-        <v>43262</v>
+      <c r="A195" t="n">
+        <v>20180611</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -10513,8 +10509,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
-        <v>43262</v>
+      <c r="A196" t="n">
+        <v>20180611</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -10565,8 +10561,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
-        <v>43262</v>
+      <c r="A197" t="n">
+        <v>20180611</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -10617,8 +10613,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
-        <v>43262</v>
+      <c r="A198" t="n">
+        <v>20180611</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -10669,8 +10665,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
-        <v>43262</v>
+      <c r="A199" t="n">
+        <v>20180611</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -10721,8 +10717,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
-        <v>43262</v>
+      <c r="A200" t="n">
+        <v>20180611</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -10773,8 +10769,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
-        <v>43262</v>
+      <c r="A201" t="n">
+        <v>20180611</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -10825,8 +10821,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
-        <v>43262</v>
+      <c r="A202" t="n">
+        <v>20180611</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -10877,8 +10873,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
-        <v>43262</v>
+      <c r="A203" t="n">
+        <v>20180611</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -10929,8 +10925,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>43262</v>
+      <c r="A204" t="n">
+        <v>20180611</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -10981,8 +10977,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>43262</v>
+      <c r="A205" t="n">
+        <v>20180611</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -11033,8 +11029,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>43262</v>
+      <c r="A206" t="n">
+        <v>20180611</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -11085,8 +11081,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>43262</v>
+      <c r="A207" t="n">
+        <v>20180611</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -11137,8 +11133,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>43262</v>
+      <c r="A208" t="n">
+        <v>20180611</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -11189,8 +11185,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
-        <v>43262</v>
+      <c r="A209" t="n">
+        <v>20180611</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -11241,8 +11237,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
-        <v>43269</v>
+      <c r="A210" t="n">
+        <v>20180618</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -11293,8 +11289,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
-        <v>43269</v>
+      <c r="A211" t="n">
+        <v>20180618</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -11345,8 +11341,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
-        <v>43269</v>
+      <c r="A212" t="n">
+        <v>20180618</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -11397,8 +11393,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
-        <v>43269</v>
+      <c r="A213" t="n">
+        <v>20180618</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -11449,8 +11445,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
-        <v>43269</v>
+      <c r="A214" t="n">
+        <v>20180618</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -11501,8 +11497,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
-        <v>43269</v>
+      <c r="A215" t="n">
+        <v>20180618</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -11553,8 +11549,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
-        <v>43269</v>
+      <c r="A216" t="n">
+        <v>20180618</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -11605,8 +11601,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
-        <v>43269</v>
+      <c r="A217" t="n">
+        <v>20180618</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -11657,8 +11653,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
-        <v>43269</v>
+      <c r="A218" t="n">
+        <v>20180618</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -11709,8 +11705,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
-        <v>43269</v>
+      <c r="A219" t="n">
+        <v>20180618</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -11761,8 +11757,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
-        <v>43269</v>
+      <c r="A220" t="n">
+        <v>20180618</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -11813,8 +11809,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
-        <v>43269</v>
+      <c r="A221" t="n">
+        <v>20180618</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -11865,8 +11861,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
-        <v>43269</v>
+      <c r="A222" t="n">
+        <v>20180618</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -11917,8 +11913,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
-        <v>43269</v>
+      <c r="A223" t="n">
+        <v>20180618</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -11969,8 +11965,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
-        <v>43269</v>
+      <c r="A224" t="n">
+        <v>20180618</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -12021,8 +12017,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
-        <v>43269</v>
+      <c r="A225" t="n">
+        <v>20180618</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -12073,8 +12069,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
-        <v>43276</v>
+      <c r="A226" t="n">
+        <v>20180625</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -12125,8 +12121,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
-        <v>43276</v>
+      <c r="A227" t="n">
+        <v>20180625</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -12177,8 +12173,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
-        <v>43276</v>
+      <c r="A228" t="n">
+        <v>20180625</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -12229,8 +12225,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
-        <v>43276</v>
+      <c r="A229" t="n">
+        <v>20180625</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -12281,8 +12277,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
-        <v>43276</v>
+      <c r="A230" t="n">
+        <v>20180625</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -12333,8 +12329,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
-        <v>43276</v>
+      <c r="A231" t="n">
+        <v>20180625</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -12385,8 +12381,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
-        <v>43276</v>
+      <c r="A232" t="n">
+        <v>20180625</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -12437,8 +12433,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
-        <v>43276</v>
+      <c r="A233" t="n">
+        <v>20180625</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -12489,8 +12485,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
-        <v>43276</v>
+      <c r="A234" t="n">
+        <v>20180625</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -12541,8 +12537,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
-        <v>43276</v>
+      <c r="A235" t="n">
+        <v>20180625</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -12593,8 +12589,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>43276</v>
+      <c r="A236" t="n">
+        <v>20180625</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -12645,8 +12641,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>43276</v>
+      <c r="A237" t="n">
+        <v>20180625</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -12697,8 +12693,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>43276</v>
+      <c r="A238" t="n">
+        <v>20180625</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -12749,8 +12745,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>43276</v>
+      <c r="A239" t="n">
+        <v>20180625</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -12801,8 +12797,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>43276</v>
+      <c r="A240" t="n">
+        <v>20180625</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -12853,8 +12849,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
-        <v>43276</v>
+      <c r="A241" t="n">
+        <v>20180625</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -12905,8 +12901,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
-        <v>43283</v>
+      <c r="A242" t="n">
+        <v>20180702</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -12957,8 +12953,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
-        <v>43283</v>
+      <c r="A243" t="n">
+        <v>20180702</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -13009,8 +13005,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
-        <v>43283</v>
+      <c r="A244" t="n">
+        <v>20180702</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -13061,8 +13057,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
-        <v>43283</v>
+      <c r="A245" t="n">
+        <v>20180702</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -13113,8 +13109,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
-        <v>43283</v>
+      <c r="A246" t="n">
+        <v>20180702</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -13165,8 +13161,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
-        <v>43283</v>
+      <c r="A247" t="n">
+        <v>20180702</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -13217,8 +13213,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
-        <v>43283</v>
+      <c r="A248" t="n">
+        <v>20180702</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -13269,8 +13265,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
-        <v>43283</v>
+      <c r="A249" t="n">
+        <v>20180702</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -13321,8 +13317,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
-        <v>43283</v>
+      <c r="A250" t="n">
+        <v>20180702</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -13373,8 +13369,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
-        <v>43283</v>
+      <c r="A251" t="n">
+        <v>20180702</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -13425,8 +13421,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
-        <v>43283</v>
+      <c r="A252" t="n">
+        <v>20180702</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -13477,8 +13473,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
-        <v>43283</v>
+      <c r="A253" t="n">
+        <v>20180702</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -13529,8 +13525,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
-        <v>43283</v>
+      <c r="A254" t="n">
+        <v>20180702</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -13581,8 +13577,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
-        <v>43283</v>
+      <c r="A255" t="n">
+        <v>20180702</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -13633,8 +13629,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
-        <v>43283</v>
+      <c r="A256" t="n">
+        <v>20180702</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -13685,8 +13681,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
-        <v>43283</v>
+      <c r="A257" t="n">
+        <v>20180702</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
